--- a/jan2021.xlsx
+++ b/jan2021.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GCON\Contabilização\1 Contabilização 2021\01 - Janeiro\08. Dados Disponibilizados\01. Descritivo de Ajustes\02. Descritivo de Ajustes e Impactos aos Agentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenji\OneDrive - ANEEL - Agencia Nacional de Energia Eletrica\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB9CF5A-0B3D-463D-A0B6-F91CA7BE815E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="15140" windowHeight="7620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ajustes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ajustes!$A$7:$E$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Ajustes!$A$1:$F$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Ajustes!$A$1:$F$31</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Ajustes!$6:$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>Título do Ajuste - conforme relatório SUMÁRIO-001</t>
-  </si>
-  <si>
-    <t>Obs.: Os ajustes que contêm (*) são inseridos por CNPJ. Para os agentes que possuem mais de um perfil modelado por CNPJ o montante financeiro é alocado de forma aleatória em qualquer um de seus perfis.</t>
   </si>
   <si>
     <t>Descrição de Impacto</t>
@@ -294,11 +292,23 @@
   <si>
     <t>ATM Principal Reversão da Ação GSF</t>
   </si>
+  <si>
+    <t xml:space="preserve">Saída </t>
+  </si>
+  <si>
+    <t>Não considerar</t>
+  </si>
+  <si>
+    <t>ENERGIA</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -350,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -420,30 +430,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
@@ -458,11 +444,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -488,7 +489,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,14 +498,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,7 +547,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 1" descr="Fundo branco com descritivo.jpg"/>
+        <xdr:cNvPr id="3" name="Imagem 1" descr="Fundo branco com descritivo.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -650,6 +663,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -685,6 +715,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -860,11 +907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="20" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="20" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -875,10 +922,11 @@
     <col min="4" max="4" width="189" style="9" customWidth="1"/>
     <col min="5" max="5" width="40.7265625" style="9" customWidth="1"/>
     <col min="6" max="6" width="40.7265625" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="39.7265625" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -886,7 +934,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -894,7 +942,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -902,7 +950,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -910,7 +958,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -918,507 +966,570 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <v>6</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="70.5" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="70.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8">
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8">
         <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8">
         <v>10</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="117.5" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="117.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8">
         <v>11</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" ht="160" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="160" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8">
         <v>12</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" ht="160" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="160" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8">
         <v>13</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8">
         <v>14</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" ht="200.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="200.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8">
         <v>15</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8">
         <v>16</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8">
         <v>17</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8">
         <v>18</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8">
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8">
         <v>20</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8">
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8">
         <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8">
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B31:F31"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
